--- a/src/test/resources/TESTDATA.xlsx
+++ b/src/test/resources/TESTDATA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91854\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815415F2-25D4-4808-B1EC-779CBD983F54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AE3BCF-EDE1-46E7-87CD-4F1C77D4CB03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{282F6F73-6FEC-4AE4-A161-A71340B89BED}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateOrganisation" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateContact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,24 +26,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>src</t>
-  </si>
-  <si>
-    <t>dest</t>
-  </si>
-  <si>
-    <t>BLR</t>
-  </si>
-  <si>
-    <t>PNQ</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>GOI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TYSS</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Saanchi</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>9876543210</t>
   </si>
 </sst>
 </file>
@@ -78,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,44 +420,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B91562-D803-4525-B008-1BCBACE0E2D8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F1649D-9C54-4F78-A2F6-7F8D126E2581}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TESTDATA.xlsx
+++ b/src/test/resources/TESTDATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91854\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91854\Desktop\Automation\vtiger\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AE3BCF-EDE1-46E7-87CD-4F1C77D4CB03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7133238-8C92-4F55-9D19-46DEFA37BF16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{282F6F73-6FEC-4AE4-A161-A71340B89BED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{282F6F73-6FEC-4AE4-A161-A71340B89BED}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateOrganisation" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>9876543210</t>
+  </si>
+  <si>
+    <t>Oraganisation name</t>
+  </si>
+  <si>
+    <t>PY_Product</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>9856321470</t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B91562-D803-4525-B008-1BCBACE0E2D8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -472,28 +484,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F1649D-9C54-4F78-A2F6-7F8D126E2581}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
